--- a/Godlibrary/Excel/data_resource.xlsx
+++ b/Godlibrary/Excel/data_resource.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\islay\Google ドライブ\52prj\end\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FreewheelExciter\Godlibrary\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="7380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17316" windowHeight="7380" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>data_resource</t>
   </si>
@@ -659,12 +659,127 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>メインキャラ6人ぶん</t>
+    <rPh sb="7" eb="8">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青年4人</t>
+    <rPh sb="0" eb="2">
+      <t>セイネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>老人1人</t>
+    <rPh sb="0" eb="2">
+      <t>ロウジン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壮年1人</t>
+    <rPh sb="0" eb="2">
+      <t>ソウネン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス5人(コストがきついなら使いまわす)</t>
+    <rPh sb="3" eb="4">
+      <t>ニン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ザコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>山賊系</t>
+    <rPh sb="0" eb="2">
+      <t>サンゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>口隠し系</t>
+    <rPh sb="0" eb="1">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器アイコン</t>
+    <rPh sb="0" eb="2">
+      <t>ブキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://game-icons.net/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキルアイコン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>顔グラ</t>
+    <rPh sb="0" eb="1">
+      <t>カオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地形マテリアル</t>
+    <rPh sb="0" eb="2">
+      <t>チケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニューウィンドウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,6 +835,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -756,12 +879,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -822,8 +948,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1104,7 +1234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1263,7 +1393,7 @@
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
     </row>
-    <row r="21" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="B21" s="7" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1416,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B22" s="8"/>
       <c r="D22" s="10"/>
       <c r="E22" s="4" t="s">
@@ -1316,7 +1446,7 @@
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
     </row>
-    <row r="25" spans="1:8" ht="58.8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B25" s="6"/>
       <c r="C25" s="4" t="s">
         <v>20</v>
@@ -1473,13 +1603,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
